--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TesoJulian\Proyecto Genetico y Paralelismo\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D857C9-065F-4BB5-8466-188BF5E9F29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5B6D4-D656-4F28-829E-3C4ADB219F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8FEEECFA-9E44-4515-9D9F-21E633D7120C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="649" firstSheet="6" activeTab="6" xr2:uid="{8FEEECFA-9E44-4515-9D9F-21E633D7120C}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
-    <sheet name="vehiculos" sheetId="2" r:id="rId2"/>
-    <sheet name="instalaciones" sheetId="3" r:id="rId3"/>
+    <sheet name="inventario" sheetId="4" r:id="rId2"/>
+    <sheet name="vehiculos" sheetId="2" r:id="rId3"/>
+    <sheet name="instalaciones" sheetId="3" r:id="rId4"/>
+    <sheet name="costo_instalaciones" sheetId="5" r:id="rId5"/>
+    <sheet name="costo_vehiculos" sheetId="6" r:id="rId6"/>
+    <sheet name="costo_inventario" sheetId="7" r:id="rId7"/>
+    <sheet name="costo_compraproductos" sheetId="8" r:id="rId8"/>
+    <sheet name="costo_transporte" sheetId="9" r:id="rId9"/>
+    <sheet name="costo_rutas_p" sheetId="10" r:id="rId10"/>
+    <sheet name="costo_rutas_s" sheetId="11" r:id="rId11"/>
+    <sheet name="costo_humanitario" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="47">
   <si>
     <t>T1</t>
   </si>
@@ -169,12 +178,24 @@
   <si>
     <t>CL7</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>COSTO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +216,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -276,11 +310,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +343,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -318,8 +378,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -635,28 +729,28 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -922,257 +1016,3462 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9AC6AC-3562-4E70-973C-566BA56E2ADD}">
-  <dimension ref="A1:E17"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A4C8C7-BAC6-4B43-BA52-1D77161B9EDB}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="5">
-        <v>5399</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>4983</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>5933</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>850</v>
+      </c>
+      <c r="G2" s="5">
+        <v>682</v>
+      </c>
+      <c r="H2" s="5">
+        <v>702</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1046</v>
+      </c>
+      <c r="J2" s="5">
+        <v>983</v>
+      </c>
+      <c r="K2" s="5">
+        <v>944</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="5">
-        <v>5284</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>5795</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>4949</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1087</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1238</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1355</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1884</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1180</v>
+      </c>
+      <c r="K3" s="5">
+        <v>619</v>
+      </c>
+      <c r="L3" s="5">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="5">
-        <v>5710</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>5553</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>4945</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1836</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1132</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1898</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1908</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1406</v>
+      </c>
+      <c r="L4" s="5">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="5">
-        <v>5951</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>5225</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>4963</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1457</v>
+      </c>
+      <c r="G5" s="5">
+        <v>683</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1178</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1475</v>
+      </c>
+      <c r="J5" s="5">
+        <v>720</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1495</v>
+      </c>
+      <c r="L5" s="5">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="5">
-        <v>5696</v>
+        <v>850</v>
       </c>
       <c r="C6" s="5">
-        <v>4923</v>
+        <v>1087</v>
       </c>
       <c r="D6" s="5">
-        <v>5229</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>1300</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1457</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1403</v>
+      </c>
+      <c r="H6" s="5">
+        <v>703</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1692</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1415</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1502</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="5">
-        <v>5061</v>
+        <v>682</v>
       </c>
       <c r="C7" s="5">
-        <v>4906</v>
+        <v>1238</v>
       </c>
       <c r="D7" s="5">
-        <v>4972</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>1836</v>
+      </c>
+      <c r="E7" s="5">
+        <v>683</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1403</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1785</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1275</v>
+      </c>
+      <c r="J7" s="5">
+        <v>721</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1686</v>
+      </c>
+      <c r="L7" s="5">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5">
+        <v>702</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1355</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1132</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1178</v>
+      </c>
+      <c r="F8" s="5">
+        <v>703</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1785</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>978</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1342</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1520</v>
+      </c>
+      <c r="L8" s="5">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="5">
-        <v>2837</v>
+        <v>1046</v>
       </c>
       <c r="C9" s="5">
-        <v>2375</v>
+        <v>1884</v>
       </c>
       <c r="D9" s="5">
-        <v>3280</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>1898</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1475</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1692</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1275</v>
+      </c>
+      <c r="H9" s="5">
+        <v>978</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1187</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1989</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="5">
-        <v>2690</v>
+        <v>983</v>
       </c>
       <c r="C10" s="5">
-        <v>2410</v>
+        <v>1180</v>
       </c>
       <c r="D10" s="5">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>1908</v>
+      </c>
+      <c r="E10" s="5">
+        <v>720</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1415</v>
+      </c>
+      <c r="G10" s="5">
+        <v>721</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1342</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1187</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1611</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="5">
-        <v>2908</v>
+        <v>944</v>
       </c>
       <c r="C11" s="5">
-        <v>2795</v>
+        <v>619</v>
       </c>
       <c r="D11" s="5">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>1406</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1495</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1502</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1686</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1520</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1989</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1611</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="5">
-        <v>2882</v>
+        <v>1368</v>
       </c>
       <c r="C12" s="5">
-        <v>3023</v>
+        <v>856</v>
       </c>
       <c r="D12" s="5">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>929</v>
+      </c>
+      <c r="E12" s="5">
+        <v>606</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1625</v>
+      </c>
+      <c r="G12" s="5">
+        <v>692</v>
+      </c>
+      <c r="H12" s="5">
+        <v>710</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1136</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1121</v>
+      </c>
+      <c r="K12" s="5">
+        <v>888</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E558A-648A-401B-BEA9-2AC771DF5C8C}">
+  <dimension ref="B1:P15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>140</v>
+      </c>
+      <c r="K2" s="5">
+        <v>623</v>
+      </c>
+      <c r="L2" s="5">
+        <v>632</v>
+      </c>
+      <c r="M2" s="5">
+        <v>269</v>
+      </c>
+      <c r="N2" s="5">
+        <v>350</v>
+      </c>
+      <c r="O2" s="5">
+        <v>357</v>
+      </c>
+      <c r="P2" s="5">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>558</v>
+      </c>
+      <c r="K3" s="5">
+        <v>703</v>
+      </c>
+      <c r="L3" s="5">
+        <v>392</v>
+      </c>
+      <c r="M3" s="5">
+        <v>541</v>
+      </c>
+      <c r="N3" s="5">
+        <v>706</v>
+      </c>
+      <c r="O3" s="5">
+        <v>306</v>
+      </c>
+      <c r="P3" s="5">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>630</v>
+      </c>
+      <c r="K4" s="5">
+        <v>336</v>
+      </c>
+      <c r="L4" s="5">
+        <v>528</v>
+      </c>
+      <c r="M4" s="5">
+        <v>529</v>
+      </c>
+      <c r="N4" s="5">
+        <v>623</v>
+      </c>
+      <c r="O4" s="5">
+        <v>646</v>
+      </c>
+      <c r="P4" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>403</v>
+      </c>
+      <c r="K5" s="5">
+        <v>428</v>
+      </c>
+      <c r="L5" s="5">
+        <v>663</v>
+      </c>
+      <c r="M5" s="5">
+        <v>212</v>
+      </c>
+      <c r="N5" s="5">
+        <v>480</v>
+      </c>
+      <c r="O5" s="5">
+        <v>609</v>
+      </c>
+      <c r="P5" s="5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>661</v>
+      </c>
+      <c r="K6" s="5">
+        <v>488</v>
+      </c>
+      <c r="L6" s="5">
+        <v>221</v>
+      </c>
+      <c r="M6" s="5">
+        <v>194</v>
+      </c>
+      <c r="N6" s="5">
+        <v>483</v>
+      </c>
+      <c r="O6" s="5">
+        <v>401</v>
+      </c>
+      <c r="P6" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>303</v>
+      </c>
+      <c r="K7" s="5">
+        <v>625</v>
+      </c>
+      <c r="L7" s="5">
+        <v>578</v>
+      </c>
+      <c r="M7" s="5">
+        <v>116</v>
+      </c>
+      <c r="N7" s="5">
+        <v>136</v>
+      </c>
+      <c r="O7" s="5">
+        <v>325</v>
+      </c>
+      <c r="P7" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>761</v>
+      </c>
+      <c r="K8" s="5">
+        <v>399</v>
+      </c>
+      <c r="L8" s="5">
+        <v>480</v>
+      </c>
+      <c r="M8" s="5">
+        <v>511</v>
+      </c>
+      <c r="N8" s="5">
+        <v>470</v>
+      </c>
+      <c r="O8" s="5">
+        <v>318</v>
+      </c>
+      <c r="P8" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>140</v>
+      </c>
+      <c r="D9" s="5">
+        <v>558</v>
+      </c>
+      <c r="E9" s="5">
+        <v>630</v>
+      </c>
+      <c r="F9" s="5">
+        <v>403</v>
+      </c>
+      <c r="G9" s="5">
+        <v>661</v>
+      </c>
+      <c r="H9" s="5">
+        <v>303</v>
+      </c>
+      <c r="I9" s="5">
+        <v>761</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>204</v>
+      </c>
+      <c r="L9" s="5">
+        <v>150</v>
+      </c>
+      <c r="M9" s="5">
+        <v>440</v>
+      </c>
+      <c r="N9" s="5">
+        <v>789</v>
+      </c>
+      <c r="O9" s="5">
+        <v>358</v>
+      </c>
+      <c r="P9" s="5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>623</v>
+      </c>
+      <c r="D10" s="5">
+        <v>703</v>
+      </c>
+      <c r="E10" s="5">
+        <v>336</v>
+      </c>
+      <c r="F10" s="5">
+        <v>428</v>
+      </c>
+      <c r="G10" s="5">
+        <v>488</v>
+      </c>
+      <c r="H10" s="5">
+        <v>625</v>
+      </c>
+      <c r="I10" s="5">
+        <v>399</v>
+      </c>
+      <c r="J10" s="5">
+        <v>204</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>155</v>
+      </c>
+      <c r="M10" s="5">
+        <v>404</v>
+      </c>
+      <c r="N10" s="5">
+        <v>179</v>
+      </c>
+      <c r="O10" s="5">
+        <v>416</v>
+      </c>
+      <c r="P10" s="5">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>632</v>
+      </c>
+      <c r="D11" s="5">
+        <v>392</v>
+      </c>
+      <c r="E11" s="5">
+        <v>528</v>
+      </c>
+      <c r="F11" s="5">
+        <v>663</v>
+      </c>
+      <c r="G11" s="5">
+        <v>221</v>
+      </c>
+      <c r="H11" s="5">
+        <v>578</v>
+      </c>
+      <c r="I11" s="5">
+        <v>480</v>
+      </c>
+      <c r="J11" s="5">
+        <v>150</v>
+      </c>
+      <c r="K11" s="5">
+        <v>155</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>784</v>
+      </c>
+      <c r="N11" s="5">
+        <v>376</v>
+      </c>
+      <c r="O11" s="5">
+        <v>226</v>
+      </c>
+      <c r="P11" s="5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>269</v>
+      </c>
+      <c r="D12" s="5">
+        <v>541</v>
+      </c>
+      <c r="E12" s="5">
+        <v>529</v>
+      </c>
+      <c r="F12" s="5">
+        <v>212</v>
+      </c>
+      <c r="G12" s="5">
+        <v>194</v>
+      </c>
+      <c r="H12" s="5">
+        <v>116</v>
+      </c>
+      <c r="I12" s="5">
+        <v>511</v>
+      </c>
+      <c r="J12" s="5">
+        <v>440</v>
+      </c>
+      <c r="K12" s="5">
+        <v>404</v>
+      </c>
+      <c r="L12" s="5">
+        <v>784</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>712</v>
+      </c>
+      <c r="O12" s="5">
+        <v>115</v>
+      </c>
+      <c r="P12" s="5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>350</v>
+      </c>
+      <c r="D13" s="5">
+        <v>706</v>
+      </c>
+      <c r="E13" s="5">
+        <v>623</v>
+      </c>
+      <c r="F13" s="5">
+        <v>480</v>
+      </c>
+      <c r="G13" s="5">
+        <v>483</v>
+      </c>
+      <c r="H13" s="5">
+        <v>136</v>
+      </c>
+      <c r="I13" s="5">
+        <v>470</v>
+      </c>
+      <c r="J13" s="5">
+        <v>789</v>
+      </c>
+      <c r="K13" s="5">
+        <v>179</v>
+      </c>
+      <c r="L13" s="5">
+        <v>376</v>
+      </c>
+      <c r="M13" s="5">
+        <v>712</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>543</v>
+      </c>
+      <c r="P13" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>357</v>
+      </c>
+      <c r="D14" s="5">
+        <v>306</v>
+      </c>
+      <c r="E14" s="5">
+        <v>646</v>
+      </c>
+      <c r="F14" s="5">
+        <v>609</v>
+      </c>
+      <c r="G14" s="5">
+        <v>401</v>
+      </c>
+      <c r="H14" s="5">
+        <v>325</v>
+      </c>
+      <c r="I14" s="5">
+        <v>318</v>
+      </c>
+      <c r="J14" s="5">
+        <v>358</v>
+      </c>
+      <c r="K14" s="5">
+        <v>416</v>
+      </c>
+      <c r="L14" s="5">
+        <v>226</v>
+      </c>
+      <c r="M14" s="5">
+        <v>115</v>
+      </c>
+      <c r="N14" s="5">
+        <v>543</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>533</v>
+      </c>
+      <c r="D15" s="5">
+        <v>705</v>
+      </c>
+      <c r="E15" s="5">
+        <v>175</v>
+      </c>
+      <c r="F15" s="5">
+        <v>402</v>
+      </c>
+      <c r="G15" s="5">
+        <v>109</v>
+      </c>
+      <c r="H15" s="5">
+        <v>237</v>
+      </c>
+      <c r="I15" s="5">
+        <v>115</v>
+      </c>
+      <c r="J15" s="5">
+        <v>371</v>
+      </c>
+      <c r="K15" s="5">
+        <v>626</v>
+      </c>
+      <c r="L15" s="5">
+        <v>572</v>
+      </c>
+      <c r="M15" s="5">
+        <v>199</v>
+      </c>
+      <c r="N15" s="5">
+        <v>111</v>
+      </c>
+      <c r="O15" s="5">
+        <v>302</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E5F10D-46F5-4492-A13B-330DC73287D9}">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
+        <v>3682.44</v>
+      </c>
+      <c r="J3" s="25">
+        <v>15861.732</v>
+      </c>
+      <c r="K3" s="24">
+        <v>8092.3919999999998</v>
+      </c>
+      <c r="L3" s="24">
+        <v>15307.578</v>
+      </c>
+      <c r="M3" s="24">
+        <v>20597.887999999999</v>
+      </c>
+      <c r="N3" s="24">
+        <v>23926.576000000001</v>
+      </c>
+      <c r="O3" s="24">
+        <v>11412.960000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
+        <v>4418.9279999999999</v>
+      </c>
+      <c r="J4" s="25">
+        <v>17948.802</v>
+      </c>
+      <c r="K4" s="24">
+        <v>6976.2</v>
+      </c>
+      <c r="L4" s="24">
+        <v>12084.93</v>
+      </c>
+      <c r="M4" s="24">
+        <v>19268.992000000002</v>
+      </c>
+      <c r="N4" s="24">
+        <v>25595.871999999999</v>
+      </c>
+      <c r="O4" s="24">
+        <v>12510.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <v>4173.4319999999998</v>
+      </c>
+      <c r="J5" s="25">
+        <v>16279.146000000001</v>
+      </c>
+      <c r="K5" s="24">
+        <v>5860.0079999999998</v>
+      </c>
+      <c r="L5" s="24">
+        <v>16918.902000000002</v>
+      </c>
+      <c r="M5" s="24">
+        <v>19933.439999999999</v>
+      </c>
+      <c r="N5" s="24">
+        <v>21700.848000000002</v>
+      </c>
+      <c r="O5" s="24">
+        <v>11193.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>3191.4479999999999</v>
+      </c>
+      <c r="J6" s="25">
+        <v>15026.904</v>
+      </c>
+      <c r="K6" s="24">
+        <v>6976.2</v>
+      </c>
+      <c r="L6" s="24">
+        <v>20141.55</v>
+      </c>
+      <c r="M6" s="24">
+        <v>19933.439999999999</v>
+      </c>
+      <c r="N6" s="24">
+        <v>22257.279999999999</v>
+      </c>
+      <c r="O6" s="24">
+        <v>12510.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>3927.9360000000001</v>
+      </c>
+      <c r="J7" s="25">
+        <v>14609.49</v>
+      </c>
+      <c r="K7" s="24">
+        <v>7813.3440000000001</v>
+      </c>
+      <c r="L7" s="24">
+        <v>14501.916000000001</v>
+      </c>
+      <c r="M7" s="24">
+        <v>21594.560000000001</v>
+      </c>
+      <c r="N7" s="24">
+        <v>26708.736000000001</v>
+      </c>
+      <c r="O7" s="24">
+        <v>12290.880000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>3191.4479999999999</v>
+      </c>
+      <c r="J8" s="25">
+        <v>17531.387999999999</v>
+      </c>
+      <c r="K8" s="24">
+        <v>8092.3919999999998</v>
+      </c>
+      <c r="L8" s="24">
+        <v>18530.225999999999</v>
+      </c>
+      <c r="M8" s="24">
+        <v>19601.216</v>
+      </c>
+      <c r="N8" s="24">
+        <v>22257.279999999999</v>
+      </c>
+      <c r="O8" s="24">
+        <v>12071.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <v>4664.424</v>
+      </c>
+      <c r="J9" s="25">
+        <v>18366.216</v>
+      </c>
+      <c r="K9" s="24">
+        <v>5860.0079999999998</v>
+      </c>
+      <c r="L9" s="24">
+        <v>16918.902000000002</v>
+      </c>
+      <c r="M9" s="24">
+        <v>20265.664000000001</v>
+      </c>
+      <c r="N9" s="24">
+        <v>26152.304</v>
+      </c>
+      <c r="O9" s="24">
+        <v>11412.960000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>15026.904</v>
+      </c>
+      <c r="K10" s="24">
+        <v>7255.2480000000005</v>
+      </c>
+      <c r="L10" s="24">
+        <v>16918.902000000002</v>
+      </c>
+      <c r="M10" s="24">
+        <v>20265.664000000001</v>
+      </c>
+      <c r="N10" s="24">
+        <v>26708.736000000001</v>
+      </c>
+      <c r="O10" s="24">
+        <v>12949.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>15026.904</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>8092.3919999999998</v>
+      </c>
+      <c r="L11" s="24">
+        <v>16113.24</v>
+      </c>
+      <c r="M11" s="24">
+        <v>21926.784</v>
+      </c>
+      <c r="N11" s="24">
+        <v>27265.168000000001</v>
+      </c>
+      <c r="O11" s="24">
+        <v>12949.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>7255.2480000000005</v>
+      </c>
+      <c r="J12" s="24">
+        <v>8092.3919999999998</v>
+      </c>
+      <c r="K12" s="27">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <v>14501.916000000001</v>
+      </c>
+      <c r="M12" s="24">
+        <v>18936.768</v>
+      </c>
+      <c r="N12" s="24">
+        <v>22813.712</v>
+      </c>
+      <c r="O12" s="24">
+        <v>11851.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5">
-        <v>2089</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <v>16918.902000000002</v>
+      </c>
+      <c r="J13" s="24">
+        <v>16113.24</v>
+      </c>
+      <c r="K13" s="24">
+        <v>14501.916000000001</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="24">
+        <v>21926.784</v>
+      </c>
+      <c r="N13" s="24">
+        <v>24483.008000000002</v>
+      </c>
+      <c r="O13" s="24">
+        <v>11851.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>3069</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <v>20265.664000000001</v>
+      </c>
+      <c r="J14" s="24">
+        <v>21926.784</v>
+      </c>
+      <c r="K14" s="24">
+        <v>18936.768</v>
+      </c>
+      <c r="L14" s="24">
+        <v>21926.784</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0</v>
+      </c>
+      <c r="N14" s="24">
+        <v>23926.576000000001</v>
+      </c>
+      <c r="O14" s="24">
+        <v>12949.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>3027</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5">
-        <v>2410</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="24">
+        <v>26708.736000000001</v>
+      </c>
+      <c r="J15" s="24">
+        <v>27265.168000000001</v>
+      </c>
+      <c r="K15" s="24">
+        <v>22813.712</v>
+      </c>
+      <c r="L15" s="24">
+        <v>24483.008000000002</v>
+      </c>
+      <c r="M15" s="24">
+        <v>23926.576000000001</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0</v>
+      </c>
+      <c r="O15" s="24">
+        <v>11851.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>2641</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5">
-        <v>2107</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2644</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2228</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2005</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <v>12949.32</v>
+      </c>
+      <c r="J16" s="24">
+        <v>12949.32</v>
+      </c>
+      <c r="K16" s="24">
+        <v>11851.92</v>
+      </c>
+      <c r="L16" s="24">
+        <v>11851.92</v>
+      </c>
+      <c r="M16" s="24">
+        <v>12949.32</v>
+      </c>
+      <c r="N16" s="24">
+        <v>11851.92</v>
+      </c>
+      <c r="O16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>11432.895</v>
+      </c>
+      <c r="J19" s="24">
+        <v>8945.2739999999994</v>
+      </c>
+      <c r="K19" s="24">
+        <v>5536.5659999999998</v>
+      </c>
+      <c r="L19" s="24">
+        <v>96633.966</v>
+      </c>
+      <c r="M19" s="24">
+        <v>28032.116000000002</v>
+      </c>
+      <c r="N19" s="24">
+        <v>8213.2379999999994</v>
+      </c>
+      <c r="O19" s="24">
+        <v>2532.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <v>11902.74</v>
+      </c>
+      <c r="J20" s="24">
+        <v>12385.764000000001</v>
+      </c>
+      <c r="K20" s="24">
+        <v>4716.3339999999998</v>
+      </c>
+      <c r="L20" s="24">
+        <v>90864.774000000005</v>
+      </c>
+      <c r="M20" s="24">
+        <v>25743.78</v>
+      </c>
+      <c r="N20" s="24">
+        <v>9582.1110000000008</v>
+      </c>
+      <c r="O20" s="24">
+        <v>3165.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="24">
+        <v>11746.125</v>
+      </c>
+      <c r="J21" s="24">
+        <v>9633.3719999999994</v>
+      </c>
+      <c r="K21" s="24">
+        <v>3896.1019999999999</v>
+      </c>
+      <c r="L21" s="24">
+        <v>99518.562000000005</v>
+      </c>
+      <c r="M21" s="24">
+        <v>26887.948</v>
+      </c>
+      <c r="N21" s="24">
+        <v>6388.0740000000005</v>
+      </c>
+      <c r="O21" s="24">
+        <v>2405.4760000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="24">
+        <v>11119.665000000001</v>
+      </c>
+      <c r="J22" s="24">
+        <v>7569.0780000000004</v>
+      </c>
+      <c r="K22" s="24">
+        <v>4716.3339999999998</v>
+      </c>
+      <c r="L22" s="24">
+        <v>105287.754</v>
+      </c>
+      <c r="M22" s="24">
+        <v>26887.948</v>
+      </c>
+      <c r="N22" s="24">
+        <v>6844.3649999999998</v>
+      </c>
+      <c r="O22" s="24">
+        <v>3165.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="24">
+        <v>11589.51</v>
+      </c>
+      <c r="J23" s="24">
+        <v>6880.9800000000005</v>
+      </c>
+      <c r="K23" s="24">
+        <v>5331.5079999999998</v>
+      </c>
+      <c r="L23" s="24">
+        <v>95191.668000000005</v>
+      </c>
+      <c r="M23" s="24">
+        <v>29748.368000000002</v>
+      </c>
+      <c r="N23" s="24">
+        <v>10494.693000000001</v>
+      </c>
+      <c r="O23" s="24">
+        <v>3038.4960000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="24">
+        <v>11119.665000000001</v>
+      </c>
+      <c r="J24" s="24">
+        <v>11697.666000000001</v>
+      </c>
+      <c r="K24" s="24">
+        <v>5536.5659999999998</v>
+      </c>
+      <c r="L24" s="24">
+        <v>102403.158</v>
+      </c>
+      <c r="M24" s="24">
+        <v>26315.864000000001</v>
+      </c>
+      <c r="N24" s="24">
+        <v>6844.3649999999998</v>
+      </c>
+      <c r="O24" s="24">
+        <v>2911.8920000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="24">
+        <v>12059.355</v>
+      </c>
+      <c r="J25" s="24">
+        <v>13073.862000000001</v>
+      </c>
+      <c r="K25" s="24">
+        <v>3896.1019999999999</v>
+      </c>
+      <c r="L25" s="24">
+        <v>99518.562000000005</v>
+      </c>
+      <c r="M25" s="24">
+        <v>27460.031999999999</v>
+      </c>
+      <c r="N25" s="24">
+        <v>10038.402</v>
+      </c>
+      <c r="O25" s="24">
+        <v>2532.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="24">
+        <v>7569.0780000000004</v>
+      </c>
+      <c r="K26" s="24">
+        <v>4921.3919999999998</v>
+      </c>
+      <c r="L26" s="24">
+        <v>99518.562000000005</v>
+      </c>
+      <c r="M26" s="24">
+        <v>27460.031999999999</v>
+      </c>
+      <c r="N26" s="24">
+        <v>10494.693000000001</v>
+      </c>
+      <c r="O26" s="24">
+        <v>3418.308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24">
+        <v>7569.0780000000004</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="24">
+        <v>5536.5659999999998</v>
+      </c>
+      <c r="L27" s="24">
+        <v>98076.263999999996</v>
+      </c>
+      <c r="M27" s="24">
+        <v>30320.452000000001</v>
+      </c>
+      <c r="N27" s="24">
+        <v>10950.984</v>
+      </c>
+      <c r="O27" s="24">
+        <v>3418.308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
+        <v>4921.3919999999998</v>
+      </c>
+      <c r="J28" s="24">
+        <v>5536.5659999999998</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="24">
+        <v>95191.668000000005</v>
+      </c>
+      <c r="M28" s="24">
+        <v>25171.696</v>
+      </c>
+      <c r="N28" s="24">
+        <v>7300.6559999999999</v>
+      </c>
+      <c r="O28" s="24">
+        <v>2785.288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="24">
+        <v>99518.562000000005</v>
+      </c>
+      <c r="J29" s="24">
+        <v>98076.263999999996</v>
+      </c>
+      <c r="K29" s="24">
+        <v>95191.668000000005</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="24">
+        <v>30320.452000000001</v>
+      </c>
+      <c r="N29" s="24">
+        <v>8669.5290000000005</v>
+      </c>
+      <c r="O29" s="24">
+        <v>2785.288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="24">
+        <v>27460.031999999999</v>
+      </c>
+      <c r="J30" s="24">
+        <v>30320.452000000001</v>
+      </c>
+      <c r="K30" s="24">
+        <v>25171.696</v>
+      </c>
+      <c r="L30" s="24">
+        <v>30320.452000000001</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="24">
+        <v>8213.2379999999994</v>
+      </c>
+      <c r="O30" s="24">
+        <v>3418.308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="24">
+        <v>10494.693000000001</v>
+      </c>
+      <c r="J31" s="24">
+        <v>10950.984</v>
+      </c>
+      <c r="K31" s="24">
+        <v>7300.6559999999999</v>
+      </c>
+      <c r="L31" s="24">
+        <v>8669.5290000000005</v>
+      </c>
+      <c r="M31" s="24">
+        <v>8213.2379999999994</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="24">
+        <v>2785.288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="24">
+        <v>3418.308</v>
+      </c>
+      <c r="J32" s="24">
+        <v>3418.308</v>
+      </c>
+      <c r="K32" s="24">
+        <v>2785.288</v>
+      </c>
+      <c r="L32" s="24">
+        <v>2785.288</v>
+      </c>
+      <c r="M32" s="24">
+        <v>3418.308</v>
+      </c>
+      <c r="N32" s="24">
+        <v>2785.288</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+    </row>
+    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
+        <v>8430.0210000000006</v>
+      </c>
+      <c r="J35" s="24">
+        <v>39840.480000000003</v>
+      </c>
+      <c r="K35" s="24">
+        <v>11806.992</v>
+      </c>
+      <c r="L35" s="24">
+        <v>11615.603999999999</v>
+      </c>
+      <c r="M35" s="24">
+        <v>15293.76</v>
+      </c>
+      <c r="N35" s="24">
+        <v>25358.718000000001</v>
+      </c>
+      <c r="O35" s="24">
+        <v>7333.732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="24">
+        <v>9018.1620000000003</v>
+      </c>
+      <c r="J36" s="24">
+        <v>43160.520000000004</v>
+      </c>
+      <c r="K36" s="24">
+        <v>11151.048000000001</v>
+      </c>
+      <c r="L36" s="24">
+        <v>8296.86</v>
+      </c>
+      <c r="M36" s="24">
+        <v>14019.28</v>
+      </c>
+      <c r="N36" s="24">
+        <v>27170.055</v>
+      </c>
+      <c r="O36" s="24">
+        <v>8082.0720000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="24">
+        <v>8822.1149999999998</v>
+      </c>
+      <c r="J37" s="24">
+        <v>40504.487999999998</v>
+      </c>
+      <c r="K37" s="24">
+        <v>10495.103999999999</v>
+      </c>
+      <c r="L37" s="24">
+        <v>13274.976000000001</v>
+      </c>
+      <c r="M37" s="24">
+        <v>14656.52</v>
+      </c>
+      <c r="N37" s="24">
+        <v>22943.601999999999</v>
+      </c>
+      <c r="O37" s="24">
+        <v>7184.0640000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="24">
+        <v>8037.9270000000006</v>
+      </c>
+      <c r="J38" s="24">
+        <v>38512.464</v>
+      </c>
+      <c r="K38" s="24">
+        <v>11151.048000000001</v>
+      </c>
+      <c r="L38" s="24">
+        <v>16593.72</v>
+      </c>
+      <c r="M38" s="24">
+        <v>14656.52</v>
+      </c>
+      <c r="N38" s="24">
+        <v>23547.381000000001</v>
+      </c>
+      <c r="O38" s="24">
+        <v>8082.0720000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="24">
+        <v>8626.0679999999993</v>
+      </c>
+      <c r="J39" s="24">
+        <v>37848.455999999998</v>
+      </c>
+      <c r="K39" s="24">
+        <v>11643.005999999999</v>
+      </c>
+      <c r="L39" s="24">
+        <v>10785.918</v>
+      </c>
+      <c r="M39" s="24">
+        <v>16249.62</v>
+      </c>
+      <c r="N39" s="24">
+        <v>28377.613000000001</v>
+      </c>
+      <c r="O39" s="24">
+        <v>7932.4040000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="24">
+        <v>8037.9270000000006</v>
+      </c>
+      <c r="J40" s="24">
+        <v>42496.512000000002</v>
+      </c>
+      <c r="K40" s="24">
+        <v>11806.992</v>
+      </c>
+      <c r="L40" s="24">
+        <v>14934.348</v>
+      </c>
+      <c r="M40" s="24">
+        <v>14337.9</v>
+      </c>
+      <c r="N40" s="24">
+        <v>23547.381000000001</v>
+      </c>
+      <c r="O40" s="24">
+        <v>7782.7359999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="24">
+        <v>9214.2090000000007</v>
+      </c>
+      <c r="J41" s="24">
+        <v>43824.527999999998</v>
+      </c>
+      <c r="K41" s="24">
+        <v>10495.103999999999</v>
+      </c>
+      <c r="L41" s="24">
+        <v>13274.976000000001</v>
+      </c>
+      <c r="M41" s="24">
+        <v>14975.14</v>
+      </c>
+      <c r="N41" s="24">
+        <v>27773.833999999999</v>
+      </c>
+      <c r="O41" s="24">
+        <v>7333.732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="24">
+        <v>38512.464</v>
+      </c>
+      <c r="K42" s="24">
+        <v>11315.034</v>
+      </c>
+      <c r="L42" s="24">
+        <v>13274.976000000001</v>
+      </c>
+      <c r="M42" s="24">
+        <v>14975.14</v>
+      </c>
+      <c r="N42" s="24">
+        <v>28377.613000000001</v>
+      </c>
+      <c r="O42" s="24">
+        <v>8381.4079999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="24">
+        <v>38512.464</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="24">
+        <v>11806.992</v>
+      </c>
+      <c r="L43" s="24">
+        <v>12445.29</v>
+      </c>
+      <c r="M43" s="24">
+        <v>16568.240000000002</v>
+      </c>
+      <c r="N43" s="24">
+        <v>28981.392</v>
+      </c>
+      <c r="O43" s="24">
+        <v>8381.4079999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="24">
+        <v>11315.034</v>
+      </c>
+      <c r="J44" s="24">
+        <v>11806.992</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="24">
+        <v>10785.918</v>
+      </c>
+      <c r="M44" s="24">
+        <v>13700.66</v>
+      </c>
+      <c r="N44" s="24">
+        <v>24151.16</v>
+      </c>
+      <c r="O44" s="24">
+        <v>7633.0680000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="24">
+        <v>13274.976000000001</v>
+      </c>
+      <c r="J45" s="24">
+        <v>12445.29</v>
+      </c>
+      <c r="K45" s="24">
+        <v>10785.918</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="24">
+        <v>16568.240000000002</v>
+      </c>
+      <c r="N45" s="24">
+        <v>25962.496999999999</v>
+      </c>
+      <c r="O45" s="24">
+        <v>7633.0680000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="24">
+        <v>14975.14</v>
+      </c>
+      <c r="J46" s="24">
+        <v>16568.240000000002</v>
+      </c>
+      <c r="K46" s="24">
+        <v>13700.66</v>
+      </c>
+      <c r="L46" s="24">
+        <v>16568.240000000002</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="24">
+        <v>25358.718000000001</v>
+      </c>
+      <c r="O46" s="24">
+        <v>8381.4079999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="24">
+        <v>28377.613000000001</v>
+      </c>
+      <c r="J47" s="24">
+        <v>28981.392</v>
+      </c>
+      <c r="K47" s="24">
+        <v>24151.16</v>
+      </c>
+      <c r="L47" s="24">
+        <v>25962.496999999999</v>
+      </c>
+      <c r="M47" s="24">
+        <v>25358.718000000001</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="24">
+        <v>7633.0680000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="24">
+        <v>8381.4079999999994</v>
+      </c>
+      <c r="J48" s="24">
+        <v>8381.4079999999994</v>
+      </c>
+      <c r="K48" s="24">
+        <v>7633.0680000000002</v>
+      </c>
+      <c r="L48" s="24">
+        <v>7633.0680000000002</v>
+      </c>
+      <c r="M48" s="24">
+        <v>8381.4079999999994</v>
+      </c>
+      <c r="N48" s="5">
+        <v>7633.0680000000002</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A33:O33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCF8092-9942-438E-8875-CA8880A29057}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>172</v>
+      </c>
+      <c r="C2" s="8">
+        <v>339</v>
+      </c>
+      <c r="D2" s="8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>240</v>
+      </c>
+      <c r="C3" s="8">
+        <v>226</v>
+      </c>
+      <c r="D3" s="8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>131</v>
+      </c>
+      <c r="C4" s="8">
+        <v>205</v>
+      </c>
+      <c r="D4" s="8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>316</v>
+      </c>
+      <c r="C5" s="8">
+        <v>277</v>
+      </c>
+      <c r="D5" s="8">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1181,22 +4480,283 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9AC6AC-3562-4E70-973C-566BA56E2ADD}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5399</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4983</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5933</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5284</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5795</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4949</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5710</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5553</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4945</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5951</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5225</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4963</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5696</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4923</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5229</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5061</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4906</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4972</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2837</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2375</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3280</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2690</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2410</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2908</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2795</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2882</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3023</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2652</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2089</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3069</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2047</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3027</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2410</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2641</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2107</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2644</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2228</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1608B8F-11BA-430B-9D34-47F2936546EF}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1273,12 +4833,12 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1399,4 +4959,629 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FF0A06-9C0D-43B1-B835-9715C31F6AD0}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>165639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
+        <v>142184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5">
+        <v>178704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5">
+        <v>106701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5">
+        <v>41144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5">
+        <v>76596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5">
+        <v>79228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5">
+        <v>54491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5">
+        <v>75767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5">
+        <v>48012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43015</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C4B1A3-8C6D-43FA-81A4-AFFD81AAB847}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B777EB8D-839D-4383-B792-F8D0171C9BAF}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5">
+        <v>109</v>
+      </c>
+      <c r="D3" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5">
+        <v>116</v>
+      </c>
+      <c r="C4" s="5">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5">
+        <v>86</v>
+      </c>
+      <c r="D5" s="5">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902D0E80-FEC4-4176-944C-6913EF8F728C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="21">
+        <v>595</v>
+      </c>
+      <c r="C2" s="5">
+        <v>746</v>
+      </c>
+      <c r="D2" s="5">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21">
+        <v>486</v>
+      </c>
+      <c r="C3" s="5">
+        <v>679</v>
+      </c>
+      <c r="D3" s="5">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>740</v>
+      </c>
+      <c r="C4" s="5">
+        <v>725</v>
+      </c>
+      <c r="D4" s="5">
+        <v>699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD042193-EC60-479F-98C9-C111B861A589}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>98</v>
+      </c>
+      <c r="C3" s="5">
+        <v>91</v>
+      </c>
+      <c r="D3" s="5">
+        <v>91</v>
+      </c>
+      <c r="E3" s="5">
+        <v>159</v>
+      </c>
+      <c r="F3" s="5">
+        <v>95</v>
+      </c>
+      <c r="G3" s="5">
+        <v>160</v>
+      </c>
+      <c r="H3" s="5">
+        <v>100</v>
+      </c>
+      <c r="I3" s="5">
+        <v>94</v>
+      </c>
+      <c r="J3" s="5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
+        <v>125</v>
+      </c>
+      <c r="C4" s="5">
+        <v>110</v>
+      </c>
+      <c r="D4" s="5">
+        <v>91</v>
+      </c>
+      <c r="E4" s="5">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>120</v>
+      </c>
+      <c r="G4" s="5">
+        <v>125</v>
+      </c>
+      <c r="H4" s="5">
+        <v>94</v>
+      </c>
+      <c r="I4" s="5">
+        <v>103</v>
+      </c>
+      <c r="J4" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5">
+        <v>121</v>
+      </c>
+      <c r="C5" s="5">
+        <v>96</v>
+      </c>
+      <c r="D5" s="5">
+        <v>152</v>
+      </c>
+      <c r="E5" s="5">
+        <v>108</v>
+      </c>
+      <c r="F5" s="5">
+        <v>137</v>
+      </c>
+      <c r="G5" s="5">
+        <v>140</v>
+      </c>
+      <c r="H5" s="5">
+        <v>127</v>
+      </c>
+      <c r="I5" s="5">
+        <v>125</v>
+      </c>
+      <c r="J5" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5">
+        <v>138</v>
+      </c>
+      <c r="C6" s="5">
+        <v>157</v>
+      </c>
+      <c r="D6" s="5">
+        <v>127</v>
+      </c>
+      <c r="E6" s="5">
+        <v>125</v>
+      </c>
+      <c r="F6" s="5">
+        <v>121</v>
+      </c>
+      <c r="G6" s="5">
+        <v>121</v>
+      </c>
+      <c r="H6" s="5">
+        <v>95</v>
+      </c>
+      <c r="I6" s="5">
+        <v>101</v>
+      </c>
+      <c r="J6" s="5">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TesoJulian\Proyecto Genetico y Paralelismo\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\2E-LIRP_Model-Genetic-Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5B6D4-D656-4F28-829E-3C4ADB219F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2A10F0-26FA-4EB4-9E85-94EAEF1D8B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="649" firstSheet="6" activeTab="6" xr2:uid="{8FEEECFA-9E44-4515-9D9F-21E633D7120C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="649" firstSheet="4" activeTab="11" xr2:uid="{8FEEECFA-9E44-4515-9D9F-21E633D7120C}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -357,6 +357,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,34 +405,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -736,21 +736,21 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1487,714 +1487,714 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E558A-648A-401B-BEA9-2AC771DF5C8C}">
-  <dimension ref="B1:P15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>140</v>
+      </c>
+      <c r="J2" s="5">
+        <v>623</v>
+      </c>
+      <c r="K2" s="5">
+        <v>632</v>
+      </c>
+      <c r="L2" s="5">
+        <v>269</v>
+      </c>
+      <c r="M2" s="5">
+        <v>350</v>
+      </c>
+      <c r="N2" s="5">
+        <v>357</v>
+      </c>
+      <c r="O2" s="5">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>558</v>
+      </c>
+      <c r="J3" s="5">
+        <v>703</v>
+      </c>
+      <c r="K3" s="5">
+        <v>392</v>
+      </c>
+      <c r="L3" s="5">
+        <v>541</v>
+      </c>
+      <c r="M3" s="5">
+        <v>706</v>
+      </c>
+      <c r="N3" s="5">
+        <v>306</v>
+      </c>
+      <c r="O3" s="5">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>630</v>
+      </c>
+      <c r="J4" s="5">
+        <v>336</v>
+      </c>
+      <c r="K4" s="5">
+        <v>528</v>
+      </c>
+      <c r="L4" s="5">
+        <v>529</v>
+      </c>
+      <c r="M4" s="5">
+        <v>623</v>
+      </c>
+      <c r="N4" s="5">
+        <v>646</v>
+      </c>
+      <c r="O4" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>403</v>
+      </c>
+      <c r="J5" s="5">
+        <v>428</v>
+      </c>
+      <c r="K5" s="5">
+        <v>663</v>
+      </c>
+      <c r="L5" s="5">
+        <v>212</v>
+      </c>
+      <c r="M5" s="5">
+        <v>480</v>
+      </c>
+      <c r="N5" s="5">
+        <v>609</v>
+      </c>
+      <c r="O5" s="5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>661</v>
+      </c>
+      <c r="J6" s="5">
+        <v>488</v>
+      </c>
+      <c r="K6" s="5">
+        <v>221</v>
+      </c>
+      <c r="L6" s="5">
+        <v>194</v>
+      </c>
+      <c r="M6" s="5">
+        <v>483</v>
+      </c>
+      <c r="N6" s="5">
+        <v>401</v>
+      </c>
+      <c r="O6" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>303</v>
+      </c>
+      <c r="J7" s="5">
+        <v>625</v>
+      </c>
+      <c r="K7" s="5">
+        <v>578</v>
+      </c>
+      <c r="L7" s="5">
+        <v>116</v>
+      </c>
+      <c r="M7" s="5">
+        <v>136</v>
+      </c>
+      <c r="N7" s="5">
+        <v>325</v>
+      </c>
+      <c r="O7" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>761</v>
+      </c>
+      <c r="J8" s="5">
+        <v>399</v>
+      </c>
+      <c r="K8" s="5">
+        <v>480</v>
+      </c>
+      <c r="L8" s="5">
+        <v>511</v>
+      </c>
+      <c r="M8" s="5">
+        <v>470</v>
+      </c>
+      <c r="N8" s="5">
+        <v>318</v>
+      </c>
+      <c r="O8" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="B9" s="5">
+        <v>140</v>
+      </c>
+      <c r="C9" s="5">
+        <v>558</v>
+      </c>
+      <c r="D9" s="5">
+        <v>630</v>
+      </c>
+      <c r="E9" s="5">
+        <v>403</v>
+      </c>
+      <c r="F9" s="5">
+        <v>661</v>
+      </c>
+      <c r="G9" s="5">
+        <v>303</v>
+      </c>
+      <c r="H9" s="5">
+        <v>761</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>204</v>
+      </c>
+      <c r="K9" s="5">
+        <v>150</v>
+      </c>
+      <c r="L9" s="5">
+        <v>440</v>
+      </c>
+      <c r="M9" s="5">
+        <v>789</v>
+      </c>
+      <c r="N9" s="5">
+        <v>358</v>
+      </c>
+      <c r="O9" s="5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="B10" s="5">
+        <v>623</v>
+      </c>
+      <c r="C10" s="5">
+        <v>703</v>
+      </c>
+      <c r="D10" s="5">
+        <v>336</v>
+      </c>
+      <c r="E10" s="5">
+        <v>428</v>
+      </c>
+      <c r="F10" s="5">
+        <v>488</v>
+      </c>
+      <c r="G10" s="5">
+        <v>625</v>
+      </c>
+      <c r="H10" s="5">
+        <v>399</v>
+      </c>
+      <c r="I10" s="5">
+        <v>204</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>155</v>
+      </c>
+      <c r="L10" s="5">
+        <v>404</v>
+      </c>
+      <c r="M10" s="5">
+        <v>179</v>
+      </c>
+      <c r="N10" s="5">
+        <v>416</v>
+      </c>
+      <c r="O10" s="5">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="B11" s="5">
+        <v>632</v>
+      </c>
+      <c r="C11" s="5">
+        <v>392</v>
+      </c>
+      <c r="D11" s="5">
+        <v>528</v>
+      </c>
+      <c r="E11" s="5">
+        <v>663</v>
+      </c>
+      <c r="F11" s="5">
+        <v>221</v>
+      </c>
+      <c r="G11" s="5">
+        <v>578</v>
+      </c>
+      <c r="H11" s="5">
+        <v>480</v>
+      </c>
+      <c r="I11" s="5">
+        <v>150</v>
+      </c>
+      <c r="J11" s="5">
+        <v>155</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>784</v>
+      </c>
+      <c r="M11" s="5">
+        <v>376</v>
+      </c>
+      <c r="N11" s="5">
+        <v>226</v>
+      </c>
+      <c r="O11" s="5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="B12" s="5">
+        <v>269</v>
+      </c>
+      <c r="C12" s="5">
+        <v>541</v>
+      </c>
+      <c r="D12" s="5">
+        <v>529</v>
+      </c>
+      <c r="E12" s="5">
+        <v>212</v>
+      </c>
+      <c r="F12" s="5">
+        <v>194</v>
+      </c>
+      <c r="G12" s="5">
+        <v>116</v>
+      </c>
+      <c r="H12" s="5">
+        <v>511</v>
+      </c>
+      <c r="I12" s="5">
+        <v>440</v>
+      </c>
+      <c r="J12" s="5">
+        <v>404</v>
+      </c>
+      <c r="K12" s="5">
+        <v>784</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>712</v>
+      </c>
+      <c r="N12" s="5">
+        <v>115</v>
+      </c>
+      <c r="O12" s="5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="B13" s="5">
+        <v>350</v>
+      </c>
+      <c r="C13" s="5">
+        <v>706</v>
+      </c>
+      <c r="D13" s="5">
+        <v>623</v>
+      </c>
+      <c r="E13" s="5">
+        <v>480</v>
+      </c>
+      <c r="F13" s="5">
+        <v>483</v>
+      </c>
+      <c r="G13" s="5">
+        <v>136</v>
+      </c>
+      <c r="H13" s="5">
+        <v>470</v>
+      </c>
+      <c r="I13" s="5">
+        <v>789</v>
+      </c>
+      <c r="J13" s="5">
+        <v>179</v>
+      </c>
+      <c r="K13" s="5">
+        <v>376</v>
+      </c>
+      <c r="L13" s="5">
+        <v>712</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>543</v>
+      </c>
+      <c r="O13" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="B14" s="5">
+        <v>357</v>
+      </c>
+      <c r="C14" s="5">
+        <v>306</v>
+      </c>
+      <c r="D14" s="5">
+        <v>646</v>
+      </c>
+      <c r="E14" s="5">
+        <v>609</v>
+      </c>
+      <c r="F14" s="5">
+        <v>401</v>
+      </c>
+      <c r="G14" s="5">
+        <v>325</v>
+      </c>
+      <c r="H14" s="5">
+        <v>318</v>
+      </c>
+      <c r="I14" s="5">
+        <v>358</v>
+      </c>
+      <c r="J14" s="5">
+        <v>416</v>
+      </c>
+      <c r="K14" s="5">
+        <v>226</v>
+      </c>
+      <c r="L14" s="5">
+        <v>115</v>
+      </c>
+      <c r="M14" s="5">
+        <v>543</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>140</v>
-      </c>
-      <c r="K2" s="5">
-        <v>623</v>
-      </c>
-      <c r="L2" s="5">
-        <v>632</v>
-      </c>
-      <c r="M2" s="5">
-        <v>269</v>
-      </c>
-      <c r="N2" s="5">
-        <v>350</v>
-      </c>
-      <c r="O2" s="5">
-        <v>357</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="B15" s="5">
         <v>533</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>558</v>
-      </c>
-      <c r="K3" s="5">
-        <v>703</v>
-      </c>
-      <c r="L3" s="5">
-        <v>392</v>
-      </c>
-      <c r="M3" s="5">
-        <v>541</v>
-      </c>
-      <c r="N3" s="5">
-        <v>706</v>
-      </c>
-      <c r="O3" s="5">
-        <v>306</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="C15" s="5">
         <v>705</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>630</v>
-      </c>
-      <c r="K4" s="5">
-        <v>336</v>
-      </c>
-      <c r="L4" s="5">
-        <v>528</v>
-      </c>
-      <c r="M4" s="5">
-        <v>529</v>
-      </c>
-      <c r="N4" s="5">
-        <v>623</v>
-      </c>
-      <c r="O4" s="5">
-        <v>646</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="D15" s="5">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>403</v>
-      </c>
-      <c r="K5" s="5">
-        <v>428</v>
-      </c>
-      <c r="L5" s="5">
-        <v>663</v>
-      </c>
-      <c r="M5" s="5">
-        <v>212</v>
-      </c>
-      <c r="N5" s="5">
-        <v>480</v>
-      </c>
-      <c r="O5" s="5">
-        <v>609</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="E15" s="5">
         <v>402</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>661</v>
-      </c>
-      <c r="K6" s="5">
-        <v>488</v>
-      </c>
-      <c r="L6" s="5">
-        <v>221</v>
-      </c>
-      <c r="M6" s="5">
-        <v>194</v>
-      </c>
-      <c r="N6" s="5">
-        <v>483</v>
-      </c>
-      <c r="O6" s="5">
-        <v>401</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="F15" s="5">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>303</v>
-      </c>
-      <c r="K7" s="5">
-        <v>625</v>
-      </c>
-      <c r="L7" s="5">
-        <v>578</v>
-      </c>
-      <c r="M7" s="5">
-        <v>116</v>
-      </c>
-      <c r="N7" s="5">
-        <v>136</v>
-      </c>
-      <c r="O7" s="5">
-        <v>325</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="G15" s="5">
         <v>237</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>761</v>
-      </c>
-      <c r="K8" s="5">
-        <v>399</v>
-      </c>
-      <c r="L8" s="5">
-        <v>480</v>
-      </c>
-      <c r="M8" s="5">
-        <v>511</v>
-      </c>
-      <c r="N8" s="5">
-        <v>470</v>
-      </c>
-      <c r="O8" s="5">
-        <v>318</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="H15" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>140</v>
-      </c>
-      <c r="D9" s="5">
-        <v>558</v>
-      </c>
-      <c r="E9" s="5">
-        <v>630</v>
-      </c>
-      <c r="F9" s="5">
-        <v>403</v>
-      </c>
-      <c r="G9" s="5">
-        <v>661</v>
-      </c>
-      <c r="H9" s="5">
-        <v>303</v>
-      </c>
-      <c r="I9" s="5">
-        <v>761</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>204</v>
-      </c>
-      <c r="L9" s="5">
-        <v>150</v>
-      </c>
-      <c r="M9" s="5">
-        <v>440</v>
-      </c>
-      <c r="N9" s="5">
-        <v>789</v>
-      </c>
-      <c r="O9" s="5">
-        <v>358</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="I15" s="5">
         <v>371</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>623</v>
-      </c>
-      <c r="D10" s="5">
-        <v>703</v>
-      </c>
-      <c r="E10" s="5">
-        <v>336</v>
-      </c>
-      <c r="F10" s="5">
-        <v>428</v>
-      </c>
-      <c r="G10" s="5">
-        <v>488</v>
-      </c>
-      <c r="H10" s="5">
-        <v>625</v>
-      </c>
-      <c r="I10" s="5">
-        <v>399</v>
-      </c>
-      <c r="J10" s="5">
-        <v>204</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>155</v>
-      </c>
-      <c r="M10" s="5">
-        <v>404</v>
-      </c>
-      <c r="N10" s="5">
-        <v>179</v>
-      </c>
-      <c r="O10" s="5">
-        <v>416</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="J15" s="5">
         <v>626</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>632</v>
-      </c>
-      <c r="D11" s="5">
-        <v>392</v>
-      </c>
-      <c r="E11" s="5">
-        <v>528</v>
-      </c>
-      <c r="F11" s="5">
-        <v>663</v>
-      </c>
-      <c r="G11" s="5">
-        <v>221</v>
-      </c>
-      <c r="H11" s="5">
-        <v>578</v>
-      </c>
-      <c r="I11" s="5">
-        <v>480</v>
-      </c>
-      <c r="J11" s="5">
-        <v>150</v>
-      </c>
-      <c r="K11" s="5">
-        <v>155</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>784</v>
-      </c>
-      <c r="N11" s="5">
-        <v>376</v>
-      </c>
-      <c r="O11" s="5">
-        <v>226</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="K15" s="5">
         <v>572</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>269</v>
-      </c>
-      <c r="D12" s="5">
-        <v>541</v>
-      </c>
-      <c r="E12" s="5">
-        <v>529</v>
-      </c>
-      <c r="F12" s="5">
-        <v>212</v>
-      </c>
-      <c r="G12" s="5">
-        <v>194</v>
-      </c>
-      <c r="H12" s="5">
-        <v>116</v>
-      </c>
-      <c r="I12" s="5">
-        <v>511</v>
-      </c>
-      <c r="J12" s="5">
-        <v>440</v>
-      </c>
-      <c r="K12" s="5">
-        <v>404</v>
-      </c>
-      <c r="L12" s="5">
-        <v>784</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>712</v>
-      </c>
-      <c r="O12" s="5">
-        <v>115</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="L15" s="5">
         <v>199</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5">
-        <v>350</v>
-      </c>
-      <c r="D13" s="5">
-        <v>706</v>
-      </c>
-      <c r="E13" s="5">
-        <v>623</v>
-      </c>
-      <c r="F13" s="5">
-        <v>480</v>
-      </c>
-      <c r="G13" s="5">
-        <v>483</v>
-      </c>
-      <c r="H13" s="5">
-        <v>136</v>
-      </c>
-      <c r="I13" s="5">
-        <v>470</v>
-      </c>
-      <c r="J13" s="5">
-        <v>789</v>
-      </c>
-      <c r="K13" s="5">
-        <v>179</v>
-      </c>
-      <c r="L13" s="5">
-        <v>376</v>
-      </c>
-      <c r="M13" s="5">
-        <v>712</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>543</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="M15" s="5">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5">
-        <v>357</v>
-      </c>
-      <c r="D14" s="5">
-        <v>306</v>
-      </c>
-      <c r="E14" s="5">
-        <v>646</v>
-      </c>
-      <c r="F14" s="5">
-        <v>609</v>
-      </c>
-      <c r="G14" s="5">
-        <v>401</v>
-      </c>
-      <c r="H14" s="5">
-        <v>325</v>
-      </c>
-      <c r="I14" s="5">
-        <v>318</v>
-      </c>
-      <c r="J14" s="5">
-        <v>358</v>
-      </c>
-      <c r="K14" s="5">
-        <v>416</v>
-      </c>
-      <c r="L14" s="5">
-        <v>226</v>
-      </c>
-      <c r="M14" s="5">
-        <v>115</v>
-      </c>
-      <c r="N14" s="5">
-        <v>543</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N15" s="5">
         <v>302</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
-        <v>533</v>
-      </c>
-      <c r="D15" s="5">
-        <v>705</v>
-      </c>
-      <c r="E15" s="5">
-        <v>175</v>
-      </c>
-      <c r="F15" s="5">
-        <v>402</v>
-      </c>
-      <c r="G15" s="5">
-        <v>109</v>
-      </c>
-      <c r="H15" s="5">
-        <v>237</v>
-      </c>
-      <c r="I15" s="5">
-        <v>115</v>
-      </c>
-      <c r="J15" s="5">
-        <v>371</v>
-      </c>
-      <c r="K15" s="5">
-        <v>626</v>
-      </c>
-      <c r="L15" s="5">
-        <v>572</v>
-      </c>
-      <c r="M15" s="5">
-        <v>199</v>
-      </c>
-      <c r="N15" s="5">
-        <v>111</v>
-      </c>
       <c r="O15" s="5">
-        <v>302</v>
-      </c>
-      <c r="P15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E5F10D-46F5-4492-A13B-330DC73287D9}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:J16"/>
     </sheetView>
   </sheetViews>
@@ -2219,66 +2219,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2307,25 +2307,25 @@
       <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="14">
         <v>3682.44</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="15">
         <v>15861.732</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="14">
         <v>8092.3919999999998</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="14">
         <v>15307.578</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="14">
         <v>20597.887999999999</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="14">
         <v>23926.576000000001</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="14">
         <v>11412.960000000001</v>
       </c>
     </row>
@@ -2354,25 +2354,25 @@
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="14">
         <v>4418.9279999999999</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="15">
         <v>17948.802</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="14">
         <v>6976.2</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="14">
         <v>12084.93</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="14">
         <v>19268.992000000002</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="14">
         <v>25595.871999999999</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="14">
         <v>12510.36</v>
       </c>
     </row>
@@ -2401,25 +2401,25 @@
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="14">
         <v>4173.4319999999998</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="15">
         <v>16279.146000000001</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="14">
         <v>5860.0079999999998</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="14">
         <v>16918.902000000002</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="14">
         <v>19933.439999999999</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="14">
         <v>21700.848000000002</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="14">
         <v>11193.48</v>
       </c>
     </row>
@@ -2448,25 +2448,25 @@
       <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="14">
         <v>3191.4479999999999</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="15">
         <v>15026.904</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="14">
         <v>6976.2</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="14">
         <v>20141.55</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="14">
         <v>19933.439999999999</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="14">
         <v>22257.279999999999</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="14">
         <v>12510.36</v>
       </c>
     </row>
@@ -2495,25 +2495,25 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="14">
         <v>3927.9360000000001</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="15">
         <v>14609.49</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="14">
         <v>7813.3440000000001</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="14">
         <v>14501.916000000001</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="14">
         <v>21594.560000000001</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="14">
         <v>26708.736000000001</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="14">
         <v>12290.880000000001</v>
       </c>
     </row>
@@ -2542,25 +2542,25 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="14">
         <v>3191.4479999999999</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="15">
         <v>17531.387999999999</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="14">
         <v>8092.3919999999998</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="14">
         <v>18530.225999999999</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="14">
         <v>19601.216</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="14">
         <v>22257.279999999999</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="14">
         <v>12071.4</v>
       </c>
     </row>
@@ -2589,25 +2589,25 @@
       <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="14">
         <v>4664.424</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="15">
         <v>18366.216</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="14">
         <v>5860.0079999999998</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="14">
         <v>16918.902000000002</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="14">
         <v>20265.664000000001</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="14">
         <v>26152.304</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="14">
         <v>11412.960000000001</v>
       </c>
     </row>
@@ -2636,25 +2636,25 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="26">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
         <v>15026.904</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="14">
         <v>7255.2480000000005</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="14">
         <v>16918.902000000002</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="14">
         <v>20265.664000000001</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="14">
         <v>26708.736000000001</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="14">
         <v>12949.32</v>
       </c>
     </row>
@@ -2683,25 +2683,25 @@
       <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="15">
         <v>15026.904</v>
       </c>
-      <c r="J11" s="26">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
         <v>8092.3919999999998</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="14">
         <v>16113.24</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="14">
         <v>21926.784</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="14">
         <v>27265.168000000001</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="14">
         <v>12949.32</v>
       </c>
     </row>
@@ -2730,25 +2730,25 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="14">
         <v>7255.2480000000005</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="14">
         <v>8092.3919999999998</v>
       </c>
-      <c r="K12" s="27">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
         <v>14501.916000000001</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="14">
         <v>18936.768</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="14">
         <v>22813.712</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="14">
         <v>11851.92</v>
       </c>
     </row>
@@ -2777,25 +2777,25 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="14">
         <v>16918.902000000002</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="14">
         <v>16113.24</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="14">
         <v>14501.916000000001</v>
       </c>
-      <c r="L13" s="26">
-        <v>0</v>
-      </c>
-      <c r="M13" s="24">
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
         <v>21926.784</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="14">
         <v>24483.008000000002</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="14">
         <v>11851.92</v>
       </c>
     </row>
@@ -2824,25 +2824,25 @@
       <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="14">
         <v>20265.664000000001</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="14">
         <v>21926.784</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="14">
         <v>18936.768</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="14">
         <v>21926.784</v>
       </c>
-      <c r="M14" s="26">
-        <v>0</v>
-      </c>
-      <c r="N14" s="24">
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
         <v>23926.576000000001</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="14">
         <v>12949.32</v>
       </c>
     </row>
@@ -2871,25 +2871,25 @@
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="14">
         <v>26708.736000000001</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="14">
         <v>27265.168000000001</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="14">
         <v>22813.712</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="14">
         <v>24483.008000000002</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="14">
         <v>23926.576000000001</v>
       </c>
-      <c r="N15" s="26">
-        <v>0</v>
-      </c>
-      <c r="O15" s="24">
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
         <v>11851.92</v>
       </c>
     </row>
@@ -2918,89 +2918,89 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="14">
         <v>12949.32</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="14">
         <v>12949.32</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="14">
         <v>11851.92</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="14">
         <v>11851.92</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="14">
         <v>12949.32</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="14">
         <v>11851.92</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3029,25 +3029,25 @@
       <c r="H19" s="5">
         <v>0</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="14">
         <v>11432.895</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="14">
         <v>8945.2739999999994</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="14">
         <v>5536.5659999999998</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="14">
         <v>96633.966</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="14">
         <v>28032.116000000002</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="14">
         <v>8213.2379999999994</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="14">
         <v>2532.08</v>
       </c>
     </row>
@@ -3076,25 +3076,25 @@
       <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="14">
         <v>11902.74</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="14">
         <v>12385.764000000001</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="14">
         <v>4716.3339999999998</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="14">
         <v>90864.774000000005</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="14">
         <v>25743.78</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="14">
         <v>9582.1110000000008</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="14">
         <v>3165.1</v>
       </c>
     </row>
@@ -3123,25 +3123,25 @@
       <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="14">
         <v>11746.125</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="14">
         <v>9633.3719999999994</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="14">
         <v>3896.1019999999999</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="14">
         <v>99518.562000000005</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="14">
         <v>26887.948</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="14">
         <v>6388.0740000000005</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="14">
         <v>2405.4760000000001</v>
       </c>
     </row>
@@ -3170,25 +3170,25 @@
       <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="14">
         <v>11119.665000000001</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="14">
         <v>7569.0780000000004</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="14">
         <v>4716.3339999999998</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="14">
         <v>105287.754</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="14">
         <v>26887.948</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="14">
         <v>6844.3649999999998</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="14">
         <v>3165.1</v>
       </c>
     </row>
@@ -3217,25 +3217,25 @@
       <c r="H23" s="5">
         <v>0</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="14">
         <v>11589.51</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="14">
         <v>6880.9800000000005</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="14">
         <v>5331.5079999999998</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="14">
         <v>95191.668000000005</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="14">
         <v>29748.368000000002</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="14">
         <v>10494.693000000001</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="14">
         <v>3038.4960000000001</v>
       </c>
     </row>
@@ -3264,25 +3264,25 @@
       <c r="H24" s="5">
         <v>0</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="14">
         <v>11119.665000000001</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="14">
         <v>11697.666000000001</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="14">
         <v>5536.5659999999998</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="14">
         <v>102403.158</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="14">
         <v>26315.864000000001</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="14">
         <v>6844.3649999999998</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="14">
         <v>2911.8920000000003</v>
       </c>
     </row>
@@ -3311,25 +3311,25 @@
       <c r="H25" s="5">
         <v>0</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="14">
         <v>12059.355</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="14">
         <v>13073.862000000001</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="14">
         <v>3896.1019999999999</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="14">
         <v>99518.562000000005</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="14">
         <v>27460.031999999999</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="14">
         <v>10038.402</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="14">
         <v>2532.08</v>
       </c>
     </row>
@@ -3361,22 +3361,22 @@
       <c r="I26" s="5">
         <v>0</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="14">
         <v>7569.0780000000004</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="14">
         <v>4921.3919999999998</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="14">
         <v>99518.562000000005</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="14">
         <v>27460.031999999999</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="14">
         <v>10494.693000000001</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="14">
         <v>3418.308</v>
       </c>
     </row>
@@ -3405,25 +3405,25 @@
       <c r="H27" s="5">
         <v>0</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="14">
         <v>7569.0780000000004</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="14">
         <v>5536.5659999999998</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="14">
         <v>98076.263999999996</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="14">
         <v>30320.452000000001</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="14">
         <v>10950.984</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="14">
         <v>3418.308</v>
       </c>
     </row>
@@ -3452,25 +3452,25 @@
       <c r="H28" s="5">
         <v>0</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="14">
         <v>4921.3919999999998</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="14">
         <v>5536.5659999999998</v>
       </c>
       <c r="K28" s="5">
         <v>0</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="14">
         <v>95191.668000000005</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="14">
         <v>25171.696</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="14">
         <v>7300.6559999999999</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="14">
         <v>2785.288</v>
       </c>
     </row>
@@ -3499,25 +3499,25 @@
       <c r="H29" s="5">
         <v>0</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="14">
         <v>99518.562000000005</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="14">
         <v>98076.263999999996</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="14">
         <v>95191.668000000005</v>
       </c>
       <c r="L29" s="5">
         <v>0</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="14">
         <v>30320.452000000001</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="14">
         <v>8669.5290000000005</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="14">
         <v>2785.288</v>
       </c>
     </row>
@@ -3546,25 +3546,25 @@
       <c r="H30" s="5">
         <v>0</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="14">
         <v>27460.031999999999</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="14">
         <v>30320.452000000001</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="14">
         <v>25171.696</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="14">
         <v>30320.452000000001</v>
       </c>
       <c r="M30" s="5">
         <v>0</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="14">
         <v>8213.2379999999994</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="14">
         <v>3418.308</v>
       </c>
     </row>
@@ -3593,25 +3593,25 @@
       <c r="H31" s="5">
         <v>0</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="14">
         <v>10494.693000000001</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="14">
         <v>10950.984</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="14">
         <v>7300.6559999999999</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="14">
         <v>8669.5290000000005</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="14">
         <v>8213.2379999999994</v>
       </c>
       <c r="N31" s="5">
         <v>0</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="14">
         <v>2785.288</v>
       </c>
     </row>
@@ -3640,22 +3640,22 @@
       <c r="H32" s="5">
         <v>0</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="14">
         <v>3418.308</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="14">
         <v>3418.308</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="14">
         <v>2785.288</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="14">
         <v>2785.288</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="14">
         <v>3418.308</v>
       </c>
-      <c r="N32" s="24">
+      <c r="N32" s="14">
         <v>2785.288</v>
       </c>
       <c r="O32" s="5">
@@ -3663,66 +3663,66 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
     </row>
     <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="N34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O34" s="23" t="s">
+      <c r="O34" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3751,25 +3751,25 @@
       <c r="H35" s="5">
         <v>0</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="14">
         <v>8430.0210000000006</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="14">
         <v>39840.480000000003</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="14">
         <v>11806.992</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="14">
         <v>11615.603999999999</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="14">
         <v>15293.76</v>
       </c>
-      <c r="N35" s="24">
+      <c r="N35" s="14">
         <v>25358.718000000001</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O35" s="14">
         <v>7333.732</v>
       </c>
     </row>
@@ -3798,25 +3798,25 @@
       <c r="H36" s="5">
         <v>0</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="14">
         <v>9018.1620000000003</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="14">
         <v>43160.520000000004</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="14">
         <v>11151.048000000001</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="14">
         <v>8296.86</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="14">
         <v>14019.28</v>
       </c>
-      <c r="N36" s="24">
+      <c r="N36" s="14">
         <v>27170.055</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="14">
         <v>8082.0720000000001</v>
       </c>
     </row>
@@ -3845,25 +3845,25 @@
       <c r="H37" s="5">
         <v>0</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="14">
         <v>8822.1149999999998</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="14">
         <v>40504.487999999998</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="14">
         <v>10495.103999999999</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="14">
         <v>13274.976000000001</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="14">
         <v>14656.52</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="14">
         <v>22943.601999999999</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="14">
         <v>7184.0640000000003</v>
       </c>
     </row>
@@ -3892,25 +3892,25 @@
       <c r="H38" s="5">
         <v>0</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="14">
         <v>8037.9270000000006</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="14">
         <v>38512.464</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="14">
         <v>11151.048000000001</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="14">
         <v>16593.72</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="14">
         <v>14656.52</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38" s="14">
         <v>23547.381000000001</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="14">
         <v>8082.0720000000001</v>
       </c>
     </row>
@@ -3939,25 +3939,25 @@
       <c r="H39" s="5">
         <v>0</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="14">
         <v>8626.0679999999993</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="14">
         <v>37848.455999999998</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="14">
         <v>11643.005999999999</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="14">
         <v>10785.918</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="14">
         <v>16249.62</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="14">
         <v>28377.613000000001</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="14">
         <v>7932.4040000000005</v>
       </c>
     </row>
@@ -3986,25 +3986,25 @@
       <c r="H40" s="5">
         <v>0</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="14">
         <v>8037.9270000000006</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="14">
         <v>42496.512000000002</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="14">
         <v>11806.992</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="14">
         <v>14934.348</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="14">
         <v>14337.9</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N40" s="14">
         <v>23547.381000000001</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="14">
         <v>7782.7359999999999</v>
       </c>
     </row>
@@ -4033,25 +4033,25 @@
       <c r="H41" s="5">
         <v>0</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="14">
         <v>9214.2090000000007</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="14">
         <v>43824.527999999998</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="14">
         <v>10495.103999999999</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="14">
         <v>13274.976000000001</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="14">
         <v>14975.14</v>
       </c>
-      <c r="N41" s="24">
+      <c r="N41" s="14">
         <v>27773.833999999999</v>
       </c>
-      <c r="O41" s="24">
+      <c r="O41" s="14">
         <v>7333.732</v>
       </c>
     </row>
@@ -4083,22 +4083,22 @@
       <c r="I42" s="5">
         <v>0</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="14">
         <v>38512.464</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="14">
         <v>11315.034</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="14">
         <v>13274.976000000001</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="14">
         <v>14975.14</v>
       </c>
-      <c r="N42" s="24">
+      <c r="N42" s="14">
         <v>28377.613000000001</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="14">
         <v>8381.4079999999994</v>
       </c>
     </row>
@@ -4127,25 +4127,25 @@
       <c r="H43" s="5">
         <v>0</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="14">
         <v>38512.464</v>
       </c>
       <c r="J43" s="5">
         <v>0</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="14">
         <v>11806.992</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="14">
         <v>12445.29</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="14">
         <v>16568.240000000002</v>
       </c>
-      <c r="N43" s="24">
+      <c r="N43" s="14">
         <v>28981.392</v>
       </c>
-      <c r="O43" s="24">
+      <c r="O43" s="14">
         <v>8381.4079999999994</v>
       </c>
     </row>
@@ -4174,25 +4174,25 @@
       <c r="H44" s="5">
         <v>0</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="14">
         <v>11315.034</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="14">
         <v>11806.992</v>
       </c>
       <c r="K44" s="5">
         <v>0</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="14">
         <v>10785.918</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="14">
         <v>13700.66</v>
       </c>
-      <c r="N44" s="24">
+      <c r="N44" s="14">
         <v>24151.16</v>
       </c>
-      <c r="O44" s="24">
+      <c r="O44" s="14">
         <v>7633.0680000000002</v>
       </c>
     </row>
@@ -4221,25 +4221,25 @@
       <c r="H45" s="5">
         <v>0</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="14">
         <v>13274.976000000001</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="14">
         <v>12445.29</v>
       </c>
-      <c r="K45" s="24">
+      <c r="K45" s="14">
         <v>10785.918</v>
       </c>
       <c r="L45" s="5">
         <v>0</v>
       </c>
-      <c r="M45" s="24">
+      <c r="M45" s="14">
         <v>16568.240000000002</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N45" s="14">
         <v>25962.496999999999</v>
       </c>
-      <c r="O45" s="24">
+      <c r="O45" s="14">
         <v>7633.0680000000002</v>
       </c>
     </row>
@@ -4268,25 +4268,25 @@
       <c r="H46" s="5">
         <v>0</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="14">
         <v>14975.14</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="14">
         <v>16568.240000000002</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="14">
         <v>13700.66</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="14">
         <v>16568.240000000002</v>
       </c>
       <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N46" s="24">
+      <c r="N46" s="14">
         <v>25358.718000000001</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O46" s="14">
         <v>8381.4079999999994</v>
       </c>
     </row>
@@ -4315,25 +4315,25 @@
       <c r="H47" s="5">
         <v>0</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="14">
         <v>28377.613000000001</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="14">
         <v>28981.392</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="14">
         <v>24151.16</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="14">
         <v>25962.496999999999</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="14">
         <v>25358.718000000001</v>
       </c>
       <c r="N47" s="5">
         <v>0</v>
       </c>
-      <c r="O47" s="24">
+      <c r="O47" s="14">
         <v>7633.0680000000002</v>
       </c>
     </row>
@@ -4362,19 +4362,19 @@
       <c r="H48" s="5">
         <v>0</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="14">
         <v>8381.4079999999994</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="14">
         <v>8381.4079999999994</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="14">
         <v>7633.0680000000002</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="14">
         <v>7633.0680000000002</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="14">
         <v>8381.4079999999994</v>
       </c>
       <c r="N48" s="5">
@@ -4751,12 +4751,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -4833,12 +4833,12 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -4972,10 +4972,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4984,7 +4984,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="5">
@@ -4992,7 +4992,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5">
@@ -5000,7 +5000,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="5">
@@ -5008,7 +5008,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="5">
@@ -5016,10 +5016,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -5028,7 +5028,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="5">
@@ -5036,7 +5036,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="5">
@@ -5044,7 +5044,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="5">
@@ -5052,7 +5052,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="5">
@@ -5060,7 +5060,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="5">
@@ -5068,7 +5068,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="5">
@@ -5076,7 +5076,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="5">
@@ -5243,7 +5243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B777EB8D-839D-4383-B792-F8D0171C9BAF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -5262,7 +5262,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5">
@@ -5276,7 +5276,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="5">
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5">
@@ -5304,7 +5304,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="5">
@@ -5345,10 +5345,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="12">
         <v>595</v>
       </c>
       <c r="C2" s="5">
@@ -5359,10 +5359,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="12">
         <v>486</v>
       </c>
       <c r="C3" s="5">
@@ -5373,10 +5373,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="12">
         <v>740</v>
       </c>
       <c r="C4" s="5">
@@ -5403,21 +5403,21 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
@@ -5449,7 +5449,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="5">
@@ -5481,7 +5481,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5">
@@ -5513,7 +5513,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="5">
@@ -5545,7 +5545,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="5">

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\2E-LIRP_Model-Genetic-Solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TesoJulian\2E-LIRP_Model-Genetic-Solution\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2A10F0-26FA-4EB4-9E85-94EAEF1D8B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D88700-F5D9-4536-89C0-CF65590FF811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="649" firstSheet="4" activeTab="11" xr2:uid="{8FEEECFA-9E44-4515-9D9F-21E633D7120C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="649" firstSheet="6" activeTab="10" xr2:uid="{8FEEECFA-9E44-4515-9D9F-21E633D7120C}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -1489,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E558A-648A-401B-BEA9-2AC771DF5C8C}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -2207,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E5F10D-46F5-4492-A13B-330DC73287D9}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:J16"/>
     </sheetView>
   </sheetViews>
